--- a/PFNA_Unit_Conversion_v6.xlsx
+++ b/PFNA_Unit_Conversion_v6.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/larsen_alexandra_epa_gov/Documents/Projects/IRIS/PFAS/pfas-birthweight-meta-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6580FF0C-141C-458C-969C-27D058D2AB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0258683E-9BDB-4454-B985-86FC8BE477CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PFNA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="120">
   <si>
     <t>Study</t>
   </si>
@@ -144,9 +133,6 @@
     <t>Term</t>
   </si>
   <si>
-    <t>11.624</t>
-  </si>
-  <si>
     <t>T1-T2</t>
   </si>
   <si>
@@ -162,9 +148,6 @@
     <t>Buck Louis, 2018</t>
   </si>
   <si>
-    <t>11.95</t>
-  </si>
-  <si>
     <t>T1</t>
   </si>
   <si>
@@ -186,18 +169,12 @@
     <t>All</t>
   </si>
   <si>
-    <t>12.3</t>
-  </si>
-  <si>
     <t>Sagiv 2018</t>
   </si>
   <si>
     <t>Sagiv, 2018</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Shoaff 2018</t>
   </si>
   <si>
@@ -210,9 +187,6 @@
     <t>Shoaff, 2018</t>
   </si>
   <si>
-    <t>18.1</t>
-  </si>
-  <si>
     <t>T2-T3</t>
   </si>
   <si>
@@ -228,18 +202,12 @@
     <t>Starling, 2017</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>Valvi 2017</t>
   </si>
   <si>
     <t>Valvi, 2017</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>T3</t>
   </si>
   <si>
@@ -255,9 +223,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -270,9 +235,6 @@
     <t>Gyllenhammar, 2018</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>PB</t>
   </si>
   <si>
@@ -282,9 +244,6 @@
     <t>Kwon, 2016</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>Lenters 2016</t>
   </si>
   <si>
@@ -297,18 +256,12 @@
     <t>Lenters, 2016</t>
   </si>
   <si>
-    <t>25.21</t>
-  </si>
-  <si>
     <t>Meng 2018</t>
   </si>
   <si>
     <t>Meng, 2018</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Callan 2016</t>
   </si>
   <si>
@@ -318,9 +271,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>37.7</t>
-  </si>
-  <si>
     <t>Li 2017</t>
   </si>
   <si>
@@ -336,54 +286,36 @@
     <t>Shi, 2017</t>
   </si>
   <si>
-    <t>39.3571428571429</t>
-  </si>
-  <si>
     <t>Xu 2019</t>
   </si>
   <si>
     <t>Xu, 2019</t>
   </si>
   <si>
-    <t>39.3857142857143</t>
-  </si>
-  <si>
     <t>Hjermitslev 2020</t>
   </si>
   <si>
     <t>Hjermitslev, 2020</t>
   </si>
   <si>
-    <t>15.3878661087866</t>
-  </si>
-  <si>
     <t>Kashino 2020</t>
   </si>
   <si>
     <t>Kashino, 2020</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>Wikstrom 2020</t>
   </si>
   <si>
     <t>Wikström, 2020</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Chen 2021 1st</t>
   </si>
   <si>
     <t>Chen, 2021</t>
   </si>
   <si>
-    <t>16.3</t>
-  </si>
-  <si>
     <t>Lind 2017 Boy</t>
   </si>
   <si>
@@ -408,9 +340,6 @@
     <t>Robledo, 2015 Boy</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Robledo 2015 Girl</t>
   </si>
   <si>
@@ -423,9 +352,6 @@
     <t>Wang, 2016 Boy</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>Wang 2016 Girl</t>
   </si>
   <si>
@@ -444,34 +370,35 @@
     <t>Yao, 2021</t>
   </si>
   <si>
+    <t>Workman 2019</t>
+  </si>
+  <si>
+    <t>Workman, 2019</t>
+  </si>
+  <si>
     <t>Chang 2022</t>
   </si>
   <si>
     <t>Chang, 2022</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>Workman 2019</t>
-  </si>
-  <si>
-    <t>Workman, 2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="#####0"/>
+  <numFmts count="10">
+    <numFmt numFmtId="164" formatCode="##0.00"/>
     <numFmt numFmtId="165" formatCode="###############0"/>
     <numFmt numFmtId="166" formatCode="#################0"/>
     <numFmt numFmtId="167" formatCode="###########0"/>
-    <numFmt numFmtId="168" formatCode="##0.00"/>
-    <numFmt numFmtId="169" formatCode="###0.0"/>
+    <numFmt numFmtId="168" formatCode="#######0.000"/>
+    <numFmt numFmtId="169" formatCode="########0.00"/>
+    <numFmt numFmtId="170" formatCode="#####0"/>
+    <numFmt numFmtId="171" formatCode="#########0.0"/>
+    <numFmt numFmtId="172" formatCode="###0.0"/>
+    <numFmt numFmtId="173" formatCode="#0.000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -483,14 +410,8 @@
       <color rgb="FF112277"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="9.5"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,14 +436,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -560,48 +475,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC1C1C1"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC1C1C1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC1C1C1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC1C1C1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -629,27 +507,18 @@
     <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="173" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,40 +655,40 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA30" sqref="AA30"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -914,71 +783,71 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="3">
         <v>0.8</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="3">
         <v>0.6</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="3">
         <v>11</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="3">
         <v>-9</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="3">
         <v>31</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="3">
         <v>27.5</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="3">
         <v>-22.5</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="3">
         <v>77.5</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="3">
         <v>-0.22314355131419999</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="3">
         <v>0.37867560164257003</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="3">
         <v>27.5</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="3">
         <v>25.510672846232701</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="3">
         <v>-22.5</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="3">
         <v>77.5</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="3">
         <v>22.195266681784101</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="3">
         <v>20.5896795292321</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="3">
         <v>-18.159763648732</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="3">
         <v>62.550297012300597</v>
       </c>
       <c r="W2" s="2" t="s">
@@ -993,91 +862,91 @@
       <c r="Z2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="7">
+        <v>11.624000000000001</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="B3" s="3">
         <v>0.76300000000000001</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="3">
         <v>0.53100000000000003</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="3">
         <v>1.155</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="3">
         <v>0.13</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="3">
         <v>-20.89</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="3">
         <v>21.15</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.51296556192979004</v>
+      </c>
+      <c r="K3" s="3">
+        <v>-82.429619913178996</v>
+      </c>
+      <c r="L3" s="3">
+        <v>83.455551037039001</v>
+      </c>
+      <c r="M3" s="3">
+        <v>-0.27049724769770001</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.57606034911128001</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.28386821828013997</v>
+      </c>
+      <c r="P3" s="3">
+        <v>23.4184442450304</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>-45.615439075939001</v>
+      </c>
+      <c r="R3" s="3">
+        <v>46.183175512498998</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0.22234577207497999</v>
+      </c>
+      <c r="T3" s="3">
+        <v>18.342990624323999</v>
+      </c>
+      <c r="U3" s="3">
+        <v>-35.729255220356002</v>
+      </c>
+      <c r="V3" s="3">
+        <v>36.173946764505899</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0.51296556192979004</v>
-      </c>
-      <c r="K3" s="7">
-        <v>-82.429619913178996</v>
-      </c>
-      <c r="L3" s="7">
-        <v>83.455551037039001</v>
-      </c>
-      <c r="M3" s="7">
-        <v>-0.27049724769770001</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0.57606034911128001</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0.28386821828013997</v>
-      </c>
-      <c r="P3" s="7">
-        <v>23.4184442450304</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>-45.615439075939001</v>
-      </c>
-      <c r="R3" s="7">
-        <v>46.183175512498998</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0.22234577207497999</v>
-      </c>
-      <c r="T3" s="7">
-        <v>18.342990624323999</v>
-      </c>
-      <c r="U3" s="7">
-        <v>-35.729255220356002</v>
-      </c>
-      <c r="V3" s="7">
-        <v>36.173946764505899</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="X3" s="6">
         <v>2106</v>
@@ -1088,91 +957,91 @@
       <c r="Z3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" s="8">
+        <v>11.95</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="B4" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AC3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3">
+        <v>-10.27</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-38.14</v>
+      </c>
+      <c r="H4" s="3">
+        <v>17.61</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="J4" s="3">
+        <v>-10.27</v>
+      </c>
+      <c r="K4" s="3">
+        <v>-38.14</v>
+      </c>
+      <c r="L4" s="3">
+        <v>17.61</v>
+      </c>
+      <c r="M4" s="3">
+        <v>-0.54574307383739995</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.51034817502521002</v>
+      </c>
+      <c r="O4" s="3">
+        <v>-24.901117286501002</v>
+      </c>
+      <c r="P4" s="3">
+        <v>34.483804581829702</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-92.476009085409004</v>
+      </c>
+      <c r="R4" s="3">
+        <v>42.698020975198098</v>
+      </c>
+      <c r="S4" s="3">
+        <v>-14.81647806993</v>
+      </c>
+      <c r="T4" s="3">
+        <v>20.518297571787901</v>
+      </c>
+      <c r="U4" s="3">
+        <v>-55.024388859505002</v>
+      </c>
+      <c r="V4" s="3">
+        <v>25.405859670054699</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F4" s="7">
-        <v>-10.27</v>
-      </c>
-      <c r="G4" s="7">
-        <v>-38.14</v>
-      </c>
-      <c r="H4" s="7">
-        <v>17.61</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="7">
-        <v>-10.27</v>
-      </c>
-      <c r="K4" s="7">
-        <v>-38.14</v>
-      </c>
-      <c r="L4" s="7">
-        <v>17.61</v>
-      </c>
-      <c r="M4" s="7">
-        <v>-0.54574307383739995</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0.51034817502521002</v>
-      </c>
-      <c r="O4" s="7">
-        <v>-24.901117286501002</v>
-      </c>
-      <c r="P4" s="7">
-        <v>34.483804581829702</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>-92.476009085409004</v>
-      </c>
-      <c r="R4" s="7">
-        <v>42.698020975198098</v>
-      </c>
-      <c r="S4" s="7">
-        <v>-14.81647806993</v>
-      </c>
-      <c r="T4" s="7">
-        <v>20.518297571787901</v>
-      </c>
-      <c r="U4" s="7">
-        <v>-55.024388859505002</v>
-      </c>
-      <c r="V4" s="7">
-        <v>25.405859670054699</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="X4" s="6">
         <v>1202</v>
@@ -1181,93 +1050,93 @@
         <v>35</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>12.3</v>
       </c>
       <c r="AB4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="AD4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="7">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3">
         <v>0.7</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>0.5</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="3">
         <v>-28.2</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="3">
         <v>-52</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="3">
         <v>-4.4000000000000004</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="3">
         <v>-56.4</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="11">
         <v>-104</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="3">
         <v>-8.8000000000000007</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="3">
         <v>-0.35667494393869997</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="3">
         <v>0.51383077397391996</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="3">
         <v>-56.4</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="3">
         <v>24.286160549613498</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="11">
         <v>-104</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="3">
         <v>-8.8000000000000007</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="3">
         <v>-40.126846717791999</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="3">
         <v>17.278848257766501</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="3">
         <v>-73.992766997347005</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="3">
         <v>-6.2609264382371004</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="X5" s="6">
         <v>1645</v>
@@ -1278,91 +1147,91 @@
       <c r="Z5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AA5" s="6">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-8</v>
+      </c>
+      <c r="G6" s="11">
+        <v>-159.49</v>
+      </c>
+      <c r="H6" s="3">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-8</v>
+      </c>
+      <c r="K6" s="11">
+        <v>-159.49</v>
+      </c>
+      <c r="L6" s="3">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="M6" s="3">
+        <v>-0.1053605156578</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.51372084219090997</v>
+      </c>
+      <c r="O6" s="3">
+        <v>-8</v>
+      </c>
+      <c r="P6" s="3">
+        <v>77.289685522231196</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>-159.49</v>
+      </c>
+      <c r="R6" s="3">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="S6" s="3">
+        <v>-7.3179152125606004</v>
+      </c>
+      <c r="T6" s="3">
+        <v>70.699920682144807</v>
+      </c>
+      <c r="U6" s="11">
+        <v>-145.89178715641</v>
+      </c>
+      <c r="V6" s="3">
+        <v>131.24680933727399</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="7">
-        <v>-8</v>
-      </c>
-      <c r="G6" s="8">
-        <v>-159.49</v>
-      </c>
-      <c r="H6" s="7">
-        <v>143.47999999999999</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="7">
-        <v>-8</v>
-      </c>
-      <c r="K6" s="8">
-        <v>-159.49</v>
-      </c>
-      <c r="L6" s="7">
-        <v>143.47999999999999</v>
-      </c>
-      <c r="M6" s="7">
-        <v>-0.1053605156578</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0.51372084219090997</v>
-      </c>
-      <c r="O6" s="7">
-        <v>-8</v>
-      </c>
-      <c r="P6" s="7">
-        <v>77.289685522231196</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>-159.49</v>
-      </c>
-      <c r="R6" s="7">
-        <v>143.47999999999999</v>
-      </c>
-      <c r="S6" s="7">
-        <v>-7.3179152125606004</v>
-      </c>
-      <c r="T6" s="7">
-        <v>70.699920682144807</v>
-      </c>
-      <c r="U6" s="8">
-        <v>-145.89178715641</v>
-      </c>
-      <c r="V6" s="7">
-        <v>131.24680933727399</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="X6" s="6">
         <v>299</v>
@@ -1373,91 +1242,91 @@
       <c r="Z6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA6" s="2" t="s">
-        <v>59</v>
+      <c r="AA6" s="10">
+        <v>18.100000000000001</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="7">
+        <v>57</v>
+      </c>
+      <c r="B7" s="3">
         <v>0.4</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>0.3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>0.6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="3">
         <v>-57.6</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="11">
         <v>-104.1</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="3">
         <v>-11.2</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="7">
+        <v>58</v>
+      </c>
+      <c r="J7" s="3">
         <v>-57.6</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="11">
         <v>-104.1</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="3">
         <v>-11.2</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="3">
         <v>-0.91629073187419996</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="3">
         <v>0.51383077397391996</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="11">
         <v>-140.17356940761999</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="3">
         <v>57.674159788478903</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="11">
         <v>-253.33452387731</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="3">
         <v>-27.255971829259</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="3">
         <v>-57.6</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="3">
         <v>23.699415074150199</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="11">
         <v>-104.1</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="3">
         <v>-11.2</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="X7" s="6">
         <v>598</v>
@@ -1468,91 +1337,91 @@
       <c r="Z7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>65</v>
+      <c r="AA7" s="6">
+        <v>27</v>
       </c>
       <c r="AB7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AC7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>0.59</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>0.46</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <v>0.79</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="3">
         <v>-42</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="11">
         <v>-108</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="3">
         <v>25</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="7">
+        <v>46</v>
+      </c>
+      <c r="J8" s="3">
         <v>-42</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="11">
         <v>-108</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="3">
         <v>25</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="3">
         <v>-0.52763274208239996</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="3">
         <v>0.40090042582405999</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="11">
         <v>-101.02612498361999</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="3">
         <v>81.612740073689096</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="11">
         <v>-259.78146424358999</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="3">
         <v>60.134598204533603</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="3">
         <v>-60.593191717335998</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="3">
         <v>48.949481202650801</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="11">
         <v>-155.81106441601</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="3">
         <v>36.067376022224103</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="X8" s="6">
         <v>604</v>
@@ -1561,1138 +1430,1138 @@
         <v>35</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>34</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="7">
+        <v>63</v>
+      </c>
+      <c r="B9" s="3">
         <v>2.36</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>4.74</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
+      <c r="D9" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="7">
+        <v>64</v>
+      </c>
+      <c r="F9" s="3">
         <v>6.07</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="3">
         <v>-16.600000000000001</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="3">
         <v>28.7</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="7">
+        <v>58</v>
+      </c>
+      <c r="J9" s="3">
         <v>6.07</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="3">
         <v>-16.600000000000001</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="3">
         <v>28.7</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="3">
         <v>0.85866161903752003</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="3">
         <v>1.55603713570699</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="3">
         <v>2.0332769298921902</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="3">
         <v>3.8710426592446798</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="3">
         <v>-5.5605266945981002</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="3">
         <v>9.6136816948773998</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="3">
         <v>6.07</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="3">
         <v>11.5563347993434</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="3">
         <v>-16.600000000000001</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="3">
         <v>28.7</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="X9" s="6">
         <v>429</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>39</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="7">
+        <v>69</v>
+      </c>
+      <c r="B10" s="3">
         <v>0.41</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <v>0.31</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="3">
         <v>0.56999999999999995</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="11">
         <v>-108</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="11">
         <v>-188.2</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="3">
         <v>-27.8</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="8">
+        <v>58</v>
+      </c>
+      <c r="J10" s="11">
         <v>-108</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="11">
         <v>-188.2</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="3">
         <v>-27.8</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="3">
         <v>-0.89159811928379995</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="3">
         <v>0.45149986589819002</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="11">
         <v>-257.98579145028998</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="3">
         <v>97.745845962613004</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="11">
         <v>-449.56412917541002</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="3">
         <v>-66.407453725167002</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="11">
         <v>-108</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="3">
         <v>40.919119245357201</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="11">
         <v>-188.2</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="3">
         <v>-27.8</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="X10" s="6">
         <v>587</v>
       </c>
       <c r="Y10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>43</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2.14</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-77.02</v>
+      </c>
+      <c r="G11" s="11">
+        <v>-135.30000000000001</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-18.73</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-77.02</v>
+      </c>
+      <c r="K11" s="11">
+        <v>-135.30000000000001</v>
+      </c>
+      <c r="L11" s="3">
+        <v>-18.73</v>
+      </c>
+      <c r="M11" s="3">
+        <v>-1.8325814637483</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.76080582903376004</v>
+      </c>
+      <c r="O11" s="11">
+        <v>-453.97914654428001</v>
+      </c>
+      <c r="P11" s="3">
+        <v>175.283525463731</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>-797.49907202598001</v>
+      </c>
+      <c r="R11" s="11">
+        <v>-110.40027804173</v>
+      </c>
+      <c r="S11" s="3">
+        <v>-77.02</v>
+      </c>
+      <c r="T11" s="3">
+        <v>29.737791336853501</v>
+      </c>
+      <c r="U11" s="11">
+        <v>-135.30000000000001</v>
+      </c>
+      <c r="V11" s="3">
+        <v>-18.73</v>
+      </c>
+      <c r="W11" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="C11" s="7">
-        <v>2.14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="7">
-        <v>-77.02</v>
-      </c>
-      <c r="G11" s="8">
-        <v>-135.30000000000001</v>
-      </c>
-      <c r="H11" s="7">
-        <v>-18.73</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="7">
-        <v>-77.02</v>
-      </c>
-      <c r="K11" s="8">
-        <v>-135.30000000000001</v>
-      </c>
-      <c r="L11" s="7">
-        <v>-18.73</v>
-      </c>
-      <c r="M11" s="7">
-        <v>-1.8325814637483</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0.76080582903376004</v>
-      </c>
-      <c r="O11" s="8">
-        <v>-453.97914654428001</v>
-      </c>
-      <c r="P11" s="7">
-        <v>175.283525463731</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>-797.49907202598001</v>
-      </c>
-      <c r="R11" s="8">
-        <v>-110.40027804173</v>
-      </c>
-      <c r="S11" s="7">
-        <v>-77.02</v>
-      </c>
-      <c r="T11" s="7">
-        <v>29.737791336853501</v>
-      </c>
-      <c r="U11" s="8">
-        <v>-135.30000000000001</v>
-      </c>
-      <c r="V11" s="7">
-        <v>-18.73</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="X11" s="6">
         <v>268</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>83</v>
+        <v>48</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>40</v>
       </c>
       <c r="AB11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.028</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AC11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE11" s="2" t="s">
+      <c r="F12" s="3">
+        <v>-44.67</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-92.04</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2.69</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1.028</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="7">
-        <v>-44.67</v>
-      </c>
-      <c r="G12" s="7">
-        <v>-92.04</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2.69</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="J12" s="3">
         <v>-43.453307392996003</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="3">
         <v>-89.533073929961006</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="3">
         <v>2.6167315175097299</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="3">
         <v>-0.42771071705550001</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="3">
         <v>0.51400000000000001</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="3">
         <v>-64.874082195913005</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="3">
         <v>35.096574048117503</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="11">
         <v>-133.66936479319</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="3">
         <v>3.9066774369153099</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="3">
         <v>-43.453307392996003</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="3">
         <v>23.508035396144201</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="3">
         <v>-89.533073929961006</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="3">
         <v>2.6167315175097299</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="X12" s="6">
         <v>1321</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Z12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA12" s="2" t="s">
-        <v>88</v>
+      <c r="AA12" s="8">
+        <v>25.21</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="7">
+        <v>78</v>
+      </c>
+      <c r="B13" s="3">
         <v>0.5</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <v>0.4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <v>0.6</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="3">
         <v>-20.6</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="3">
         <v>-53.7</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="3">
         <v>12.5</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="7">
+        <v>46</v>
+      </c>
+      <c r="J13" s="3">
         <v>-20.6</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="3">
         <v>-53.7</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="3">
         <v>12.5</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="3">
         <v>-0.69314718055989999</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="3">
         <v>0.30057173449127</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="3">
         <v>-58.891464837748998</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="3">
         <v>48.279752966370701</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="11">
         <v>-153.51804183433001</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="3">
         <v>35.735112158828301</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="3">
         <v>-29.719517842313</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="3">
         <v>24.364328237710499</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U13" s="3">
         <v>-77.472723695737997</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V13" s="3">
         <v>18.033688011112101</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="X13" s="6">
         <v>2120</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Z13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA13" s="2" t="s">
-        <v>91</v>
+      <c r="AA13" s="6">
+        <v>8</v>
       </c>
       <c r="AB13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC13" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="AD13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="7">
+        <v>80</v>
+      </c>
+      <c r="B14" s="3">
         <v>0.3</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>0.18</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
+      <c r="D14" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="7">
+        <v>45</v>
+      </c>
+      <c r="F14" s="3">
         <v>14</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="11">
         <v>-169</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="3">
         <v>196</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="7">
+        <v>58</v>
+      </c>
+      <c r="J14" s="3">
         <v>14</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="11">
         <v>-169</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="3">
         <v>196</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="3">
         <v>-1.3577151541999</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="3">
         <v>0.55451302937618996</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="3">
         <v>52.743494418144998</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="3">
         <v>350.79681519068902</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="11">
         <v>-636.68932547617999</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="3">
         <v>738.40892185402902</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="3">
         <v>14</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="3">
         <v>93.113955888749402</v>
       </c>
-      <c r="U14" s="8">
+      <c r="U14" s="11">
         <v>-169</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="3">
         <v>196</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="X14" s="6">
         <v>98</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>37.700000000000003</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="7">
+        <v>83</v>
+      </c>
+      <c r="B15" s="3">
         <v>0.23</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>46</v>
+      <c r="D15" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="7">
+        <v>45</v>
+      </c>
+      <c r="F15" s="3">
         <v>-45.6</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="11">
         <v>-106.9</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="3">
         <v>15.8</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="7">
+        <v>58</v>
+      </c>
+      <c r="J15" s="3">
         <v>-45.6</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="11">
         <v>-106.9</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="3">
         <v>15.8</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="3">
         <v>-1.9454647635408999</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="3">
         <v>0.97548838381800995</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="11">
         <v>-290.00288255921998</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="3">
         <v>199.06914358723199</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="11">
         <v>-679.85324880658004</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="3">
         <v>100.483454921833</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="3">
         <v>-45.6</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="3">
         <v>31.301595582327501</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U15" s="11">
         <v>-106.9</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15" s="3">
         <v>15.8</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="X15" s="6">
         <v>321</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>39</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="7">
+        <v>85</v>
+      </c>
+      <c r="B16" s="3">
         <v>0.224</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <v>0.122</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>46</v>
+      <c r="D16" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="7">
+        <v>45</v>
+      </c>
+      <c r="F16" s="3">
         <v>52.68</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="11">
         <v>-206.01</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="3">
         <v>311.36</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="J16" s="7">
+        <v>86</v>
+      </c>
+      <c r="J16" s="3">
         <v>52.68</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="11">
         <v>-206.01</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="3">
         <v>311.36</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="3">
         <v>-1.6259957752856999</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="3">
         <v>0.50967940542782997</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="3">
         <v>113.26135347042</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="3">
         <v>283.76520160840499</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="11">
         <v>-442.91897168643999</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="3">
         <v>669.42017875000397</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="3">
         <v>22.878633306663399</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="3">
         <v>57.320169624191102</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="3">
         <v>-89.469006216886996</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="3">
         <v>135.22192988539501</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="X16" s="6">
         <v>170</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>39.357142857142897</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="7">
+        <v>88</v>
+      </c>
+      <c r="B17" s="3">
         <v>0.27900000000000003</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <v>0.13800000000000001</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>46</v>
+      <c r="D17" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="8">
+        <v>45</v>
+      </c>
+      <c r="F17" s="11">
         <v>-307.2</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="11">
         <v>-805.7</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="3">
         <v>191.2</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="J17" s="8">
+        <v>86</v>
+      </c>
+      <c r="J17" s="11">
         <v>-307.2</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="11">
         <v>-805.7</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="3">
         <v>191.2</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="3">
         <v>-1.3859717089067001</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="3">
         <v>0.46782093101095001</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="11">
         <v>-521.69799685073997</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="3">
         <v>431.88832795362703</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="9">
         <v>-1368.2684767664</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="3">
         <v>324.70265949825</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="11">
         <v>-133.41526484068001</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="3">
         <v>110.44799098973</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U17" s="11">
         <v>-349.91106406944999</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="3">
         <v>83.037104939901894</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="X17" s="6">
         <v>98</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>104</v>
+        <v>48</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>39.3857142857143</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="7">
+        <v>90</v>
+      </c>
+      <c r="B18" s="3">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="3">
         <v>0.84799999999999998</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="3">
         <v>1.59</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="3">
         <v>-59.3</v>
       </c>
-      <c r="G18" s="8">
-        <v>-120</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="G18" s="11">
+        <v>-130</v>
+      </c>
+      <c r="H18" s="3">
         <v>11.6</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="7">
+        <v>58</v>
+      </c>
+      <c r="J18" s="3">
         <v>-59.3</v>
       </c>
-      <c r="K18" s="8">
-        <v>-120</v>
-      </c>
-      <c r="L18" s="7">
+      <c r="K18" s="11">
+        <v>-130</v>
+      </c>
+      <c r="L18" s="3">
         <v>11.6</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="3">
         <v>0.13976194237515999</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="3">
         <v>0.46598829665119001</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="3">
         <v>-50.434315065817003</v>
       </c>
-      <c r="P18" s="7">
-        <v>28.552835049209801</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>-102.05932222425</v>
-      </c>
-      <c r="R18" s="7">
+      <c r="P18" s="3">
+        <v>30.722503366019101</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>-110.56426574293999</v>
+      </c>
+      <c r="R18" s="3">
         <v>9.8657344816775598</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="3">
         <v>-59.3</v>
       </c>
-      <c r="T18" s="7">
-        <v>33.572045465642198</v>
-      </c>
-      <c r="U18" s="8">
-        <v>-120</v>
-      </c>
-      <c r="V18" s="7">
+      <c r="T18" s="3">
+        <v>36.123112750265499</v>
+      </c>
+      <c r="U18" s="11">
+        <v>-130</v>
+      </c>
+      <c r="V18" s="3">
         <v>11.6</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="X18" s="6">
         <v>266</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Z18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA18" s="2" t="s">
-        <v>107</v>
+      <c r="AA18" s="12">
+        <v>15.3878661087866</v>
       </c>
       <c r="AB18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC18" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="AD18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="7">
+        <v>92</v>
+      </c>
+      <c r="B19" s="3">
         <v>1.2</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="3">
         <v>0.9</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="3">
         <v>1.6</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="3">
         <v>-96.2</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="11">
         <v>-165.3</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="3">
         <v>-27.1</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="7">
+        <v>86</v>
+      </c>
+      <c r="J19" s="3">
         <v>-96.2</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="11">
         <v>-165.3</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="3">
         <v>-27.1</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="3">
         <v>0.18232155679395001</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="3">
         <v>0.42651807896528998</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="3">
         <v>-34.174551399754002</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="3">
         <v>12.524422413602601</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="3">
         <v>-58.721968257580997</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="3">
         <v>-9.6271345419265</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="3">
         <v>-41.779129159093003</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T19" s="3">
         <v>15.3113776254195</v>
       </c>
-      <c r="U19" s="7">
+      <c r="U19" s="3">
         <v>-71.788877858608004</v>
       </c>
-      <c r="V19" s="7">
+      <c r="V19" s="3">
         <v>-11.769380459578</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="X19" s="6">
         <v>1591</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>110</v>
+        <v>48</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>29</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="7">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3">
         <v>0.53</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <v>0.39</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="3">
         <v>0.73</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="3">
         <v>-46</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="3">
         <v>-89</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="3">
         <v>-4</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="7">
+        <v>58</v>
+      </c>
+      <c r="J20" s="3">
         <v>-46</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="3">
         <v>-89</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="3">
         <v>-4</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="3">
         <v>-0.63487827243600004</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="3">
         <v>0.46472003097063003</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="3">
         <v>-84.899143893610997</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="3">
         <v>40.020850914693</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="11">
         <v>-164.26138709851</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="3">
         <v>-7.3825342516183996</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S20" s="3">
         <v>-46</v>
       </c>
-      <c r="T20" s="7">
+      <c r="T20" s="3">
         <v>21.6840719192978</v>
       </c>
-      <c r="U20" s="7">
+      <c r="U20" s="3">
         <v>-89</v>
       </c>
-      <c r="V20" s="7">
+      <c r="V20" s="3">
         <v>-4</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="X20" s="6">
         <v>1533</v>
@@ -2701,188 +2570,188 @@
         <v>35</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>10</v>
       </c>
       <c r="AB20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC20" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="AD20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="7">
+        <v>96</v>
+      </c>
+      <c r="B21" s="3">
         <v>2.33</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="3">
         <v>1.61</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="3">
         <v>3.35</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="3">
         <v>-47.3</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="11">
         <v>-155.6</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="3">
         <v>61</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" s="7">
+        <v>58</v>
+      </c>
+      <c r="J21" s="3">
         <v>-47.3</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="11">
         <v>-155.6</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="3">
         <v>61</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="3">
         <v>0.84586826757761002</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="3">
         <v>0.54317072041540004</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="3">
         <v>-19.699032131502999</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="3">
         <v>23.012516529134299</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="3">
         <v>-64.802735722239007</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="3">
         <v>25.404671459232599</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S21" s="3">
         <v>-47.3</v>
       </c>
-      <c r="T21" s="7">
+      <c r="T21" s="3">
         <v>55.256117384939998</v>
       </c>
-      <c r="U21" s="8">
+      <c r="U21" s="11">
         <v>-155.6</v>
       </c>
-      <c r="V21" s="7">
+      <c r="V21" s="3">
         <v>61</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="X21" s="6">
         <v>214</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>116</v>
+        <v>48</v>
+      </c>
+      <c r="AA21" s="10">
+        <v>16.3</v>
       </c>
       <c r="AB21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC21" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="AD21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="7">
+        <v>98</v>
+      </c>
+      <c r="B22" s="3">
         <v>0.7</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="3">
         <v>0.5</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="3">
         <v>0.9</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="3">
         <v>-36</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="11">
         <v>-140</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="3">
         <v>69</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" s="7">
+        <v>58</v>
+      </c>
+      <c r="J22" s="3">
         <v>-36</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="11">
         <v>-140</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="3">
         <v>69</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="3">
         <v>-0.35667494393869997</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="3">
         <v>0.43572690682262</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="3">
         <v>-50.440376773772002</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="3">
         <v>74.704028215091398</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="11">
         <v>-196.15702078689</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="3">
         <v>96.677388816396103</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="3">
         <v>-36</v>
       </c>
-      <c r="T22" s="7">
+      <c r="T22" s="3">
         <v>53.317306248626302</v>
       </c>
-      <c r="U22" s="8">
+      <c r="U22" s="11">
         <v>-140</v>
       </c>
-      <c r="V22" s="7">
+      <c r="V22" s="3">
         <v>69</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="X22" s="6">
         <v>338</v>
@@ -2891,93 +2760,93 @@
         <v>35</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
+      </c>
+      <c r="AA22" s="6">
+        <v>10</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" s="7">
+        <v>100</v>
+      </c>
+      <c r="B23" s="3">
         <v>0.7</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="3">
         <v>0.5</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="3">
         <v>0.9</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="3">
         <v>110</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="3">
         <v>-13</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="3">
         <v>232</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" s="7">
+        <v>58</v>
+      </c>
+      <c r="J23" s="3">
         <v>110</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="3">
         <v>-13</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="3">
         <v>232</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="3">
         <v>-0.35667494393869997</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="3">
         <v>0.43572690682262</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="3">
         <v>154.12337347541401</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="3">
         <v>87.571707716255602</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="3">
         <v>-18.21458050164</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="3">
         <v>325.060205875419</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23" s="3">
         <v>110</v>
       </c>
-      <c r="T23" s="7">
+      <c r="T23" s="3">
         <v>62.501148473270099</v>
       </c>
-      <c r="U23" s="7">
+      <c r="U23" s="3">
         <v>-13</v>
       </c>
-      <c r="V23" s="7">
+      <c r="V23" s="3">
         <v>232</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="X23" s="6">
         <v>298</v>
@@ -2986,283 +2855,283 @@
         <v>35</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
+      </c>
+      <c r="AA23" s="6">
+        <v>10</v>
       </c>
       <c r="AB23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AC23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="7">
-        <v>1.5660000000000001</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="E24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="3">
+        <v>62.66</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-32.049999999999997</v>
+      </c>
+      <c r="H24" s="3">
+        <v>157.38</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="3">
+        <v>196.61123313460899</v>
+      </c>
+      <c r="K24" s="11">
+        <v>-100.56479447757</v>
+      </c>
+      <c r="L24" s="3">
+        <v>493.81863821776</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.44852459756861002</v>
+      </c>
+      <c r="N24" s="3">
         <v>0.31869999999999998</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="7">
-        <v>62.66</v>
-      </c>
-      <c r="G24" s="7">
-        <v>-32.049999999999997</v>
-      </c>
-      <c r="H24" s="7">
-        <v>157.38</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="J24" s="7">
+      <c r="O24" s="3">
+        <v>124.250733927301</v>
+      </c>
+      <c r="P24" s="3">
+        <v>95.8250919699571</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-63.553080471911997</v>
+      </c>
+      <c r="R24" s="3">
+        <v>312.07437768079598</v>
+      </c>
+      <c r="S24" s="3">
         <v>196.61123313460899</v>
       </c>
-      <c r="K24" s="8">
+      <c r="T24" s="3">
+        <v>151.63121296711199</v>
+      </c>
+      <c r="U24" s="11">
         <v>-100.56479447757</v>
       </c>
-      <c r="L24" s="7">
+      <c r="V24" s="3">
         <v>493.81863821776</v>
       </c>
-      <c r="M24" s="7">
-        <v>0.44852459756861002</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0.31869999999999998</v>
-      </c>
-      <c r="O24" s="7">
-        <v>124.250733927301</v>
-      </c>
-      <c r="P24" s="7">
-        <v>95.8250919699571</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>-63.553080471911997</v>
-      </c>
-      <c r="R24" s="7">
-        <v>312.07437768079598</v>
-      </c>
-      <c r="S24" s="7">
-        <v>196.61123313460899</v>
-      </c>
-      <c r="T24" s="7">
-        <v>151.63121296711199</v>
-      </c>
-      <c r="U24" s="8">
-        <v>-100.56479447757</v>
-      </c>
-      <c r="V24" s="7">
-        <v>493.81863821776</v>
-      </c>
       <c r="W24" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="X24" s="6">
         <v>113</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>125</v>
+        <v>48</v>
+      </c>
+      <c r="AA24" s="6">
+        <v>0</v>
       </c>
       <c r="AB24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.31390000000000001</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AC24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE24" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="7">
-        <v>1.2110000000000001</v>
-      </c>
-      <c r="C25" s="7">
+      <c r="E25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="3">
+        <v>-10.08</v>
+      </c>
+      <c r="G25" s="11">
+        <v>-111.46</v>
+      </c>
+      <c r="H25" s="3">
+        <v>91.29</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" s="3">
+        <v>-32.112137623446998</v>
+      </c>
+      <c r="K25" s="11">
+        <v>-355.08123606243998</v>
+      </c>
+      <c r="L25" s="3">
+        <v>290.825103536158</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.19144646457096001</v>
+      </c>
+      <c r="N25" s="3">
         <v>0.31390000000000001</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="7">
-        <v>-10.08</v>
-      </c>
-      <c r="G25" s="8">
-        <v>-111.46</v>
-      </c>
-      <c r="H25" s="7">
-        <v>91.29</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="J25" s="7">
+      <c r="O25" s="3">
+        <v>-26.250778903674998</v>
+      </c>
+      <c r="P25" s="3">
+        <v>134.69902068815</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>-290.26902942496002</v>
+      </c>
+      <c r="R25" s="3">
+        <v>237.74142917821999</v>
+      </c>
+      <c r="S25" s="3">
         <v>-32.112137623446998</v>
       </c>
-      <c r="K25" s="8">
+      <c r="T25" s="3">
+        <v>164.77505318807499</v>
+      </c>
+      <c r="U25" s="11">
         <v>-355.08123606243998</v>
       </c>
-      <c r="L25" s="7">
+      <c r="V25" s="3">
         <v>290.825103536158</v>
       </c>
-      <c r="M25" s="7">
-        <v>0.19144646457096001</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0.31390000000000001</v>
-      </c>
-      <c r="O25" s="7">
-        <v>-26.250778903674998</v>
-      </c>
-      <c r="P25" s="7">
-        <v>134.69902068815</v>
-      </c>
-      <c r="Q25" s="8">
-        <v>-290.26902942496002</v>
-      </c>
-      <c r="R25" s="7">
-        <v>237.74142917821999</v>
-      </c>
-      <c r="S25" s="7">
-        <v>-32.112137623446998</v>
-      </c>
-      <c r="T25" s="7">
-        <v>164.77505318807499</v>
-      </c>
-      <c r="U25" s="8">
-        <v>-355.08123606243998</v>
-      </c>
-      <c r="V25" s="7">
-        <v>290.825103536158</v>
-      </c>
       <c r="W25" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="X25" s="6">
         <v>117</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA25" s="2" t="s">
-        <v>125</v>
+        <v>48</v>
+      </c>
+      <c r="AA25" s="6">
+        <v>0</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="7">
+        <v>108</v>
+      </c>
+      <c r="B26" s="3">
         <v>1.55</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="3">
         <v>0.92</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="3">
         <v>2.6</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="3">
         <v>20</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="3">
         <v>-60</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="3">
         <v>110</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J26" s="7">
+        <v>58</v>
+      </c>
+      <c r="J26" s="3">
         <v>20</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="3">
         <v>-60</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="3">
         <v>110</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="3">
         <v>0.43825493093116002</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="3">
         <v>0.77013257352427</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="3">
         <v>12.151554633400799</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="3">
         <v>26.349518460193899</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="3">
         <v>-36.454663900202</v>
       </c>
-      <c r="R26" s="7">
+      <c r="R26" s="3">
         <v>66.8335504837043</v>
       </c>
-      <c r="S26" s="7">
+      <c r="S26" s="3">
         <v>20</v>
       </c>
-      <c r="T26" s="7">
+      <c r="T26" s="3">
         <v>43.3681438385956</v>
       </c>
-      <c r="U26" s="7">
+      <c r="U26" s="3">
         <v>-60</v>
       </c>
-      <c r="V26" s="7">
+      <c r="V26" s="3">
         <v>110</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="X26" s="6">
         <v>117</v>
@@ -3273,91 +3142,91 @@
       <c r="Z26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA26" s="2" t="s">
-        <v>130</v>
+      <c r="AA26" s="6">
+        <v>33</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="7">
+        <v>110</v>
+      </c>
+      <c r="B27" s="3">
         <v>1.58</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="3">
         <v>0.84</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="3">
         <v>2.42</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="3">
         <v>-80</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="11">
         <v>-160</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="3">
         <v>-0.01</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="7">
+        <v>58</v>
+      </c>
+      <c r="J27" s="3">
         <v>-80</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="11">
         <v>-160</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="3">
         <v>-0.01</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="3">
         <v>0.45742484703887998</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="3">
         <v>0.78438621736904002</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="3">
         <v>-47.578087911863001</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="3">
         <v>24.273463521082402</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="3">
         <v>-95.156175823726002</v>
       </c>
-      <c r="R27" s="7">
+      <c r="R27" s="3">
         <v>-5.9472609890000002E-3</v>
       </c>
-      <c r="S27" s="7">
+      <c r="S27" s="3">
         <v>-80</v>
       </c>
-      <c r="T27" s="7">
+      <c r="T27" s="3">
         <v>40.8145254866877</v>
       </c>
-      <c r="U27" s="8">
+      <c r="U27" s="11">
         <v>-160</v>
       </c>
-      <c r="V27" s="7">
+      <c r="V27" s="3">
         <v>-0.01</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="X27" s="6">
         <v>106</v>
@@ -3368,407 +3237,712 @@
       <c r="Z27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA27" s="2" t="s">
-        <v>130</v>
+      <c r="AA27" s="6">
+        <v>33</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="7">
+        <v>112</v>
+      </c>
+      <c r="B28" s="3">
         <v>0.5</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="3">
         <v>0.39</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="3">
         <v>0.67</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="11">
         <v>-123.57</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="11">
         <v>-214.41</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="3">
         <v>-32.74</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J28" s="8">
+        <v>58</v>
+      </c>
+      <c r="J28" s="11">
         <v>-123.57</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="11">
         <v>-214.41</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="3">
         <v>-32.74</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="3">
         <v>-0.69314718055989999</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="3">
         <v>0.40114099084628002</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="11">
         <v>-243.10639575959999</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="3">
         <v>91.1776653019744</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="Q28" s="11">
         <v>-421.82117273461</v>
       </c>
-      <c r="R28" s="7">
+      <c r="R28" s="3">
         <v>-64.411292361975001</v>
       </c>
-      <c r="S28" s="8">
+      <c r="S28" s="11">
         <v>-123.57</v>
       </c>
-      <c r="T28" s="7">
+      <c r="T28" s="3">
         <v>46.345239359750899</v>
       </c>
-      <c r="U28" s="8">
+      <c r="U28" s="11">
         <v>-214.41</v>
       </c>
-      <c r="V28" s="7">
+      <c r="V28" s="3">
         <v>-32.74</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="X28" s="14">
+        <v>113</v>
+      </c>
+      <c r="X28" s="6">
         <v>224</v>
       </c>
-      <c r="Y28" s="16" t="s">
+      <c r="Y28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z28" s="17" t="s">
+      <c r="Z28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA28" s="12">
+      <c r="AA28" s="10">
         <v>39.299999999999997</v>
       </c>
-      <c r="AB28" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC28" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD28" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE28" s="12" t="s">
-        <v>61</v>
+      <c r="AB28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="7">
+        <v>114</v>
+      </c>
+      <c r="B29" s="3">
         <v>0.81</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="3">
         <v>1.07</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="3">
         <v>-46.19</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="11">
         <v>-133.71</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="3">
         <v>41.34</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" s="7">
+        <v>58</v>
+      </c>
+      <c r="J29" s="3">
         <v>-46.19</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="11">
         <v>-133.71</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="3">
         <v>41.34</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="3">
         <v>-0.2107210313157</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="3">
         <v>0.46685480885911002</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="3">
         <v>-55.769475347201997</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="3">
         <v>53.917857308943098</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="Q29" s="11">
         <v>-161.44049683208999</v>
       </c>
-      <c r="R29" s="7">
+      <c r="R29" s="3">
         <v>49.913620066103597</v>
       </c>
-      <c r="S29" s="7">
+      <c r="S29" s="3">
         <v>-46.19</v>
       </c>
-      <c r="T29" s="7">
+      <c r="T29" s="3">
         <v>44.656432817330298</v>
       </c>
-      <c r="U29" s="8">
+      <c r="U29" s="11">
         <v>-133.71</v>
       </c>
-      <c r="V29" s="7">
+      <c r="V29" s="3">
         <v>41.34</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="X29" s="15">
+        <v>115</v>
+      </c>
+      <c r="X29" s="6">
         <v>369</v>
       </c>
-      <c r="Y29" s="18" t="s">
+      <c r="Y29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z29" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA29" s="13">
+      <c r="Z29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA29" s="8">
         <v>39.43</v>
       </c>
-      <c r="AB29" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE29" s="13" t="s">
-        <v>61</v>
+      <c r="AB29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30" s="7">
+        <v>116</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="3">
+        <v>-62</v>
+      </c>
+      <c r="G30" s="11">
+        <v>-176.845</v>
+      </c>
+      <c r="H30" s="3">
+        <v>52.844999999999999</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="3">
+        <v>-62</v>
+      </c>
+      <c r="K30" s="11">
+        <v>-176.845</v>
+      </c>
+      <c r="L30" s="3">
+        <v>52.844999999999999</v>
+      </c>
+      <c r="M30" s="3">
+        <v>-1.0225064170361999</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.63486355221640001</v>
+      </c>
+      <c r="O30" s="11">
+        <v>-165.44949727918001</v>
+      </c>
+      <c r="P30" s="3">
+        <v>156.36435706180299</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>-471.91800558608003</v>
+      </c>
+      <c r="R30" s="3">
+        <v>141.01901102771399</v>
+      </c>
+      <c r="S30" s="3">
+        <v>-62</v>
+      </c>
+      <c r="T30" s="3">
+        <v>58.595464460511899</v>
+      </c>
+      <c r="U30" s="11">
+        <v>-176.845</v>
+      </c>
+      <c r="V30" s="3">
+        <v>52.844999999999999</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="X30" s="6">
+        <v>414</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA30" s="10">
+        <v>28.6</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="3">
         <v>0.24</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C31" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="3">
+        <v>-32</v>
+      </c>
+      <c r="G31" s="3">
+        <v>-67</v>
+      </c>
+      <c r="H31" s="3">
+        <v>3</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="7">
+      <c r="J31" s="3">
         <v>-32</v>
       </c>
-      <c r="G30" s="7">
+      <c r="K31" s="3">
         <v>-67</v>
       </c>
-      <c r="H30" s="7">
+      <c r="L31" s="3">
         <v>3</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J30" s="7">
-        <v>-32</v>
-      </c>
-      <c r="K30" s="7">
-        <v>-67</v>
-      </c>
-      <c r="L30" s="7">
-        <v>3</v>
-      </c>
-      <c r="M30" s="7">
+      <c r="M31" s="3">
         <v>-1.4271163556401001</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N31" s="3">
         <v>0.8329091229351</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O31" s="11">
         <v>-179.34830731165999</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P31" s="3">
         <v>100.08459985460701</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="Q31" s="11">
         <v>-375.51051843379997</v>
       </c>
-      <c r="R30" s="7">
+      <c r="R31" s="3">
         <v>16.813903810468499</v>
       </c>
-      <c r="S30" s="7">
+      <c r="S31" s="3">
         <v>-46.166241308446999</v>
       </c>
-      <c r="T30" s="7">
+      <c r="T31" s="3">
         <v>25.762884843500501</v>
       </c>
-      <c r="U30" s="7">
+      <c r="U31" s="3">
         <v>-96.660567739561003</v>
       </c>
-      <c r="V30" s="7">
+      <c r="V31" s="3">
         <v>4.3280851226668897</v>
       </c>
-      <c r="W30" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="X30" s="15">
+      <c r="W31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="X31" s="6">
         <v>370</v>
       </c>
-      <c r="Y30" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z30" s="18" t="s">
+      <c r="Y31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA30" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB30" s="18" t="s">
+      <c r="AA31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC30" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD30" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE30" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="9">
-        <v>-62</v>
-      </c>
-      <c r="G31" s="10">
-        <v>-176.845</v>
-      </c>
-      <c r="H31" s="9">
-        <v>52.844999999999999</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J31" s="9">
-        <v>-62</v>
-      </c>
-      <c r="K31" s="10">
-        <v>-176.845</v>
-      </c>
-      <c r="L31" s="9">
-        <v>52.844999999999999</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S31" s="9">
-        <v>-62</v>
-      </c>
-      <c r="T31" s="11">
-        <v>58.594000000000001</v>
-      </c>
-      <c r="U31" s="10">
-        <v>-176.845</v>
-      </c>
-      <c r="V31" s="9">
-        <v>52.844999999999999</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="X31" s="15">
-        <v>414</v>
-      </c>
-      <c r="Y31" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z31" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA31" s="13">
-        <v>28.6</v>
-      </c>
-      <c r="AB31" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE31" s="13" t="s">
-        <v>61</v>
+      <c r="AD31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>The SAS System</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F4A3076CDBA5F043BF5E9E1BFC2CF0D1" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="92fd62ea8fb881faf84b1963c434a317">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="eaebfe7e-79fa-4259-bb90-90c6e095541b" xmlns:ns4="e234cea2-43ac-4f5e-8904-efc79b02c6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8ae3c21da30ba9eeb2730e295589098a" ns1:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="eaebfe7e-79fa-4259-bb90-90c6e095541b"/>
+    <xsd:import namespace="e234cea2-43ac-4f5e-8904-efc79b02c6e8"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:Records_x0020_Status" minOccurs="0"/>
+                <xsd:element ref="ns4:Records_x0020_Date" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="20" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="21" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="eaebfe7e-79fa-4259-bb90-90c6e095541b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="22" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e234cea2-43ac-4f5e-8904-efc79b02c6e8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="17" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Records_x0020_Status" ma:index="18" nillable="true" ma:displayName="Records Status" ma:default="Pending" ma:internalName="Records_x0020_Status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Records_x0020_Date" ma:index="19" nillable="true" ma:displayName="Records Date" ma:hidden="true" ma:internalName="Records_x0020_Date">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Records_x0020_Date xmlns="e234cea2-43ac-4f5e-8904-efc79b02c6e8" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_activity xmlns="eaebfe7e-79fa-4259-bb90-90c6e095541b" xsi:nil="true"/>
+    <Records_x0020_Status xmlns="e234cea2-43ac-4f5e-8904-efc79b02c6e8">Pending</Records_x0020_Status>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01723FC1-3894-403A-8798-AFE7F58262D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="eaebfe7e-79fa-4259-bb90-90c6e095541b"/>
+    <ds:schemaRef ds:uri="e234cea2-43ac-4f5e-8904-efc79b02c6e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56AFFA29-BF8B-45E3-B7A1-EC8A6C905AC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D52C45EC-D9D7-48EC-8AE8-467A821550A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="eaebfe7e-79fa-4259-bb90-90c6e095541b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e234cea2-43ac-4f5e-8904-efc79b02c6e8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PFNA_Unit_Conversion_v6.xlsx
+++ b/PFNA_Unit_Conversion_v6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/larsen_alexandra_epa_gov/Documents/Projects/IRIS/PFAS/pfas-birthweight-meta-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0258683E-9BDB-4454-B985-86FC8BE477CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0258683E-9BDB-4454-B985-86FC8BE477CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6585B359-3ADF-40B6-8FF7-7DB133E12F8E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,9 +307,6 @@
     <t>Wikstrom 2020</t>
   </si>
   <si>
-    <t>Wikström, 2020</t>
-  </si>
-  <si>
     <t>Chen 2021 1st</t>
   </si>
   <si>
@@ -380,6 +377,9 @@
   </si>
   <si>
     <t>Chang, 2022</t>
+  </si>
+  <si>
+    <t>Wikstrom, 2020</t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="S4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2561,7 +2561,7 @@
         <v>-4</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="X20" s="6">
         <v>1533</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="21" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="3">
         <v>2.33</v>
@@ -2656,7 +2656,7 @@
         <v>61</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X21" s="6">
         <v>214</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="22" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="3">
         <v>0.7</v>
@@ -2751,7 +2751,7 @@
         <v>69</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X22" s="6">
         <v>338</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="23" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="3">
         <v>0.7</v>
@@ -2846,7 +2846,7 @@
         <v>232</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X23" s="6">
         <v>298</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="24" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="3">
         <v>1.5660000000000001</v>
@@ -2887,7 +2887,7 @@
         <v>44</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F24" s="3">
         <v>62.66</v>
@@ -2899,7 +2899,7 @@
         <v>157.38</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J24" s="3">
         <v>196.61123313460899</v>
@@ -2941,7 +2941,7 @@
         <v>493.81863821776</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X24" s="6">
         <v>113</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="25" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="3">
         <v>1.2110000000000001</v>
@@ -2982,7 +2982,7 @@
         <v>44</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F25" s="3">
         <v>-10.08</v>
@@ -2994,7 +2994,7 @@
         <v>91.29</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J25" s="3">
         <v>-32.112137623446998</v>
@@ -3036,7 +3036,7 @@
         <v>290.825103536158</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X25" s="6">
         <v>117</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="26" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" s="3">
         <v>1.55</v>
@@ -3131,7 +3131,7 @@
         <v>110</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X26" s="6">
         <v>117</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="27" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" s="3">
         <v>1.58</v>
@@ -3226,7 +3226,7 @@
         <v>-0.01</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X27" s="6">
         <v>106</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="28" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" s="3">
         <v>0.5</v>
@@ -3321,7 +3321,7 @@
         <v>-32.74</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X28" s="6">
         <v>224</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="29" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" s="3">
         <v>0.81</v>
@@ -3416,7 +3416,7 @@
         <v>41.34</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X29" s="6">
         <v>369</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="30" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" s="3">
         <v>0.44</v>
@@ -3511,7 +3511,7 @@
         <v>52.844999999999999</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X30" s="6">
         <v>414</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="31" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31" s="3">
         <v>0.24</v>
@@ -3606,7 +3606,7 @@
         <v>4.3280851226668897</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X31" s="6">
         <v>370</v>
@@ -3643,6 +3643,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F4A3076CDBA5F043BF5E9E1BFC2CF0D1" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="92fd62ea8fb881faf84b1963c434a317">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="eaebfe7e-79fa-4259-bb90-90c6e095541b" xmlns:ns4="e234cea2-43ac-4f5e-8904-efc79b02c6e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8ae3c21da30ba9eeb2730e295589098a" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3880,15 +3889,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3902,6 +3902,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56AFFA29-BF8B-45E3-B7A1-EC8A6C905AC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01723FC1-3894-403A-8798-AFE7F58262D5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3917,14 +3925,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56AFFA29-BF8B-45E3-B7A1-EC8A6C905AC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
